--- a/03_Docs/ReactiveSpaces-Gantt.xlsx
+++ b/03_Docs/ReactiveSpaces-Gantt.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="Pickers" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Actual">(PeriodInActual*(project!$E1&gt;0))*PeriodInPlan</definedName>
-    <definedName name="ActualBeyond">PeriodInActual*(project!$E1&gt;0)</definedName>
+    <definedName name="Actual">(PeriodInActual*(project!$F1&gt;0))*PeriodInPlan</definedName>
+    <definedName name="ActualBeyond">PeriodInActual*(project!$F1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">(project!A$8=MEDIAN(project!A$8,project!$E1,project!$E1+project!$F1)*(project!$E1&gt;0))*((project!A$8&lt;(INT(project!$E1+project!$F1*project!$G1)))+(project!A$8=project!$E1))*(project!$G1&gt;0)</definedName>
-    <definedName name="period_selected">project!$N$3</definedName>
-    <definedName name="PeriodInActual">project!A$8=MEDIAN(project!A$8,project!$E1,project!$E1+project!$F1-1)</definedName>
-    <definedName name="PeriodInPlan">project!A$8=MEDIAN(project!A$8,project!$C1,project!$C1+project!$D1-1)</definedName>
-    <definedName name="Plan">PeriodInPlan*(project!$C1&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond">(project!A$8=MEDIAN(project!A$8,project!$F1,project!$F1+project!$G1)*(project!$F1&gt;0))*((project!A$8&lt;(INT(project!$F1+project!$G1*project!$H1)))+(project!A$8=project!$F1))*(project!$H1&gt;0)</definedName>
+    <definedName name="period_selected">project!$O$3</definedName>
+    <definedName name="PeriodInActual">project!A$8=MEDIAN(project!A$8,project!$F1,project!$F1+project!$G1-1)</definedName>
+    <definedName name="PeriodInPlan">project!A$8=MEDIAN(project!A$8,project!$D1,project!$D1+project!$E1-1)</definedName>
+    <definedName name="Plan">PeriodInPlan*(project!$D1&gt;0)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="81">
   <si>
     <t>Plan</t>
   </si>
@@ -224,22 +225,10 @@
     <t>Create Assets</t>
   </si>
   <si>
-    <t xml:space="preserve">Create Base Environment </t>
-  </si>
-  <si>
     <t>Zara</t>
   </si>
   <si>
-    <t>Implement flocking system</t>
-  </si>
-  <si>
     <t>Colour assignment</t>
-  </si>
-  <si>
-    <t>Initial mouse interaction</t>
-  </si>
-  <si>
-    <t>Local Kinect Interaction</t>
   </si>
   <si>
     <t>Implement scoring system</t>
@@ -249,9 +238,6 @@
   </si>
   <si>
     <t>Interface</t>
-  </si>
-  <si>
-    <t>Remote Kinect Interaction</t>
   </si>
   <si>
     <t>Marketing</t>
@@ -318,6 +304,48 @@
   </si>
   <si>
     <t>Day Start</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Requires</t>
+  </si>
+  <si>
+    <t>Kinect v2 Support</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Website - Initial</t>
+  </si>
+  <si>
+    <t>Dot Generation</t>
+  </si>
+  <si>
+    <t>Colecting Dots</t>
+  </si>
+  <si>
+    <t>Large Dot Creation</t>
+  </si>
+  <si>
+    <t>Remote Interaction</t>
+  </si>
+  <si>
+    <t>Large dot functionality</t>
+  </si>
+  <si>
+    <t>Days Left</t>
   </si>
 </sst>
 </file>
@@ -532,7 +560,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -596,13 +624,19 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -616,47 +650,7 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="228">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="422">
     <dxf>
       <fill>
         <patternFill>
@@ -886,46 +880,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -1152,46 +1106,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -1418,46 +1332,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -1684,46 +1558,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -1950,46 +1784,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2216,46 +2010,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2482,46 +2236,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2748,46 +2462,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3014,46 +2688,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3280,46 +2914,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3772,6 +3366,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -3783,7 +3405,100 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -3803,7 +3518,100 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -3823,10 +3631,2668 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
           <color theme="7"/>
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3988,6 +6454,163 @@
       <border>
         <bottom style="thin">
           <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
         </bottom>
       </border>
     </dxf>
@@ -3995,6 +6618,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFAAC56D"/>
       <color rgb="FFBAD08A"/>
       <color rgb="FFB5CD81"/>
@@ -4014,7 +6640,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="13"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4023,13 +6649,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>14</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
@@ -4299,144 +6925,151 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:CB61"/>
+  <dimension ref="B2:CC61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="36.25" style="2" customWidth="1"/>
-    <col min="3" max="5" width="7.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
-    <col min="9" max="28" width="2.75" style="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="36.25" style="2" customWidth="1"/>
+    <col min="4" max="6" width="7.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.25" style="7" customWidth="1"/>
+    <col min="9" max="9" width="4.25" style="1" customWidth="1"/>
+    <col min="10" max="29" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:80" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+    <row r="2" spans="2:81" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="2:80" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="I3" s="8" t="s">
+    <row r="3" spans="2:81" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="J3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="9">
+      <c r="N3" s="8"/>
+      <c r="O3" s="9">
+        <v>13</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="11"/>
+      <c r="V3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="6" t="s">
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:80" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="AT4" s="1"/>
+    <row r="4" spans="2:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
     </row>
-    <row r="5" spans="2:80" x14ac:dyDescent="0.3">
-      <c r="AT5" s="1"/>
+    <row r="5" spans="2:81" x14ac:dyDescent="0.3">
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="2:80" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
+    <row r="6" spans="2:81" ht="15" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="AT6" s="1"/>
+      <c r="K6" s="4"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
     </row>
-    <row r="7" spans="2:80" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:81" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4444,691 +7077,797 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>17</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>18</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>19</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>20</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>21</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>22</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>23</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>24</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AH8" s="3">
         <v>25</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AI8" s="3">
         <v>26</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AJ8" s="3">
         <v>27</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AK8" s="3">
         <v>28</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AL8" s="3">
         <v>29</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AM8" s="3">
         <v>30</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AN8" s="3">
         <v>31</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AO8" s="3">
         <v>32</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AP8" s="3">
         <v>33</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AQ8" s="3">
         <v>34</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AR8" s="3">
         <v>35</v>
       </c>
-      <c r="AR8" s="3">
+      <c r="AS8" s="3">
         <v>36</v>
       </c>
-      <c r="AS8" s="3">
+      <c r="AT8" s="3">
         <v>37</v>
       </c>
-      <c r="AT8" s="3">
+      <c r="AU8" s="3">
         <v>38</v>
       </c>
-      <c r="AU8" s="3">
+      <c r="AV8" s="3">
         <v>39</v>
       </c>
-      <c r="AV8" s="3">
+      <c r="AW8" s="3">
         <v>40</v>
       </c>
-      <c r="AW8" s="3">
+      <c r="AX8" s="3">
         <v>41</v>
       </c>
-      <c r="AX8" s="3">
+      <c r="AY8" s="3">
         <v>42</v>
       </c>
-      <c r="AY8" s="3">
+      <c r="AZ8" s="3">
         <v>43</v>
       </c>
-      <c r="AZ8" s="3">
+      <c r="BA8" s="3">
         <v>44</v>
       </c>
-      <c r="BA8" s="3">
+      <c r="BB8" s="3">
         <v>45</v>
       </c>
-      <c r="BB8" s="3">
+      <c r="BC8" s="3">
         <v>46</v>
       </c>
-      <c r="BC8" s="3">
+      <c r="BD8" s="3">
         <v>47</v>
       </c>
-      <c r="BD8" s="3">
+      <c r="BE8" s="3">
         <v>48</v>
       </c>
-      <c r="BE8" s="3">
+      <c r="BF8" s="3">
         <v>49</v>
       </c>
-      <c r="BF8" s="3">
+      <c r="BG8" s="3">
         <v>50</v>
       </c>
-      <c r="BG8" s="3">
+      <c r="BH8" s="3">
         <v>51</v>
       </c>
-      <c r="BH8" s="3">
+      <c r="BI8" s="3">
         <v>52</v>
       </c>
-      <c r="BI8" s="3">
+      <c r="BJ8" s="3">
         <v>53</v>
       </c>
-      <c r="BJ8" s="3">
+      <c r="BK8" s="3">
         <v>54</v>
       </c>
-      <c r="BK8" s="3">
+      <c r="BL8" s="3">
         <v>55</v>
       </c>
-      <c r="BL8" s="3">
+      <c r="BM8" s="3">
         <v>56</v>
       </c>
-      <c r="BM8" s="3">
+      <c r="BN8" s="3">
         <v>57</v>
       </c>
-      <c r="BN8" s="3">
+      <c r="BO8" s="3">
         <v>58</v>
       </c>
-      <c r="BO8" s="3">
+      <c r="BP8" s="3">
         <v>59</v>
       </c>
-      <c r="BP8" s="3">
+      <c r="BQ8" s="3">
         <v>60</v>
       </c>
-      <c r="BQ8" s="3">
+      <c r="BR8" s="3">
         <v>61</v>
       </c>
-      <c r="BR8" s="3">
+      <c r="BS8" s="3">
         <v>62</v>
       </c>
-      <c r="BS8" s="3">
+      <c r="BT8" s="3">
         <v>63</v>
       </c>
-      <c r="BT8" s="3">
+      <c r="BU8" s="3">
         <v>64</v>
       </c>
-      <c r="BU8" s="3">
+      <c r="BV8" s="3">
         <v>65</v>
       </c>
-      <c r="BV8" s="3">
+      <c r="BW8" s="3">
         <v>66</v>
       </c>
-      <c r="BW8" s="3">
+      <c r="BX8" s="3">
         <v>67</v>
       </c>
-      <c r="BX8" s="3">
+      <c r="BY8" s="3">
         <v>68</v>
       </c>
-      <c r="BY8" s="3">
+      <c r="BZ8" s="3">
         <v>69</v>
       </c>
-      <c r="BZ8" s="3">
+      <c r="CA8" s="3">
         <v>70</v>
       </c>
-      <c r="CA8" s="3">
+      <c r="CB8" s="3">
         <v>71</v>
       </c>
-      <c r="CB8" s="3">
+      <c r="CC8" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:80" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="str">
-        <f>Sheet1!B2</f>
+    <row r="9" spans="2:81" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <f>Tasks!B2</f>
+        <v>API</v>
+      </c>
+      <c r="C9" s="15" t="str">
+        <f>Tasks!C2</f>
         <v>desktop -&gt; synced peer list</v>
       </c>
-      <c r="C9" s="23">
-        <f>Sheet1!F2</f>
+      <c r="D9" s="22">
+        <f>Tasks!J2</f>
         <v>1</v>
       </c>
-      <c r="D9" s="23">
-        <f>Sheet1!E2-Sheet1!F2</f>
+      <c r="E9" s="22">
+        <f>Tasks!I2-Tasks!J2</f>
         <v>6</v>
       </c>
-      <c r="E9" s="16">
+      <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="16">
+      <c r="G9" s="16">
         <v>14</v>
       </c>
-      <c r="G9" s="17">
+      <c r="H9" s="17">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="2:80" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="str">
-        <f>Sheet1!B3</f>
+    <row r="10" spans="2:81" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <f>Tasks!B3</f>
+        <v>API</v>
+      </c>
+      <c r="C10" s="15" t="str">
+        <f>Tasks!C3</f>
         <v>websocket -&gt; local kinect data</v>
       </c>
-      <c r="C10" s="23">
-        <f>Sheet1!F3</f>
+      <c r="D10" s="22">
+        <f>Tasks!J3</f>
         <v>1</v>
       </c>
-      <c r="D10" s="23">
-        <f>Sheet1!E3-Sheet1!F3</f>
+      <c r="E10" s="22">
+        <f>Tasks!I3-Tasks!J3</f>
         <v>6</v>
       </c>
-      <c r="E10" s="16">
+      <c r="F10" s="16">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
+      <c r="G10" s="16">
         <v>14</v>
       </c>
-      <c r="G10" s="17">
+      <c r="H10" s="17">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:80" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="str">
-        <f>Sheet1!B4</f>
+    <row r="11" spans="2:81" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <f>Tasks!B4</f>
+        <v>API</v>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f>Tasks!C4</f>
         <v>Javascript -&gt; local Kinect data</v>
       </c>
-      <c r="C11" s="23">
-        <f>Sheet1!F4</f>
+      <c r="D11" s="22">
+        <f>Tasks!J4</f>
         <v>1</v>
       </c>
-      <c r="D11" s="23">
-        <f>Sheet1!E4-Sheet1!F4</f>
+      <c r="E11" s="22">
+        <f>Tasks!I4-Tasks!J4</f>
         <v>6</v>
       </c>
-      <c r="E11" s="16">
+      <c r="F11" s="16">
         <v>1</v>
       </c>
-      <c r="F11" s="16">
+      <c r="G11" s="16">
         <v>14</v>
       </c>
-      <c r="G11" s="17">
+      <c r="H11" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:80" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="str">
-        <f>Sheet1!B5</f>
+    <row r="12" spans="2:81" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <f>Tasks!B5</f>
+        <v>API</v>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f>Tasks!C5</f>
         <v xml:space="preserve">desktop -&gt; remote kinect data </v>
       </c>
-      <c r="C12" s="23">
-        <f>Sheet1!F5</f>
+      <c r="D12" s="22">
+        <f>Tasks!J5</f>
         <v>7</v>
       </c>
-      <c r="D12" s="23">
-        <f>Sheet1!E5-Sheet1!F5</f>
+      <c r="E12" s="22">
+        <f>Tasks!I5-Tasks!J5</f>
         <v>7</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17">
+      <c r="F12" s="16">
+        <v>7</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:81" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <f>Tasks!B6</f>
+        <v>API</v>
+      </c>
+      <c r="C13" s="15" t="str">
+        <f>Tasks!C6</f>
+        <v>websocket -&gt; remote kinect data</v>
+      </c>
+      <c r="D13" s="22">
+        <f>Tasks!J6</f>
+        <v>7</v>
+      </c>
+      <c r="E13" s="22">
+        <f>Tasks!I6-Tasks!J6</f>
+        <v>7</v>
+      </c>
+      <c r="F13" s="16">
+        <v>7</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:80" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="str">
-        <f>Sheet1!B6</f>
-        <v>websocket -&gt; remote kinect data</v>
-      </c>
-      <c r="C13" s="23">
-        <f>Sheet1!F6</f>
+    <row r="14" spans="2:81" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <f>Tasks!B7</f>
+        <v>API</v>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f>Tasks!C7</f>
+        <v>Javascript -&gt; remote kinect data</v>
+      </c>
+      <c r="D14" s="22">
+        <f>Tasks!J7</f>
         <v>7</v>
       </c>
-      <c r="D13" s="23">
-        <f>Sheet1!E6-Sheet1!F6</f>
+      <c r="E14" s="22">
+        <f>Tasks!I7-Tasks!J7</f>
         <v>7</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17">
+      <c r="F14" s="16">
+        <v>7</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:80" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="str">
-        <f>Sheet1!B7</f>
-        <v>Javascript -&gt; remote kinect data</v>
-      </c>
-      <c r="C14" s="23">
-        <f>Sheet1!F7</f>
+    <row r="15" spans="2:81" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <f>Tasks!B8</f>
+        <v>API</v>
+      </c>
+      <c r="C15" s="15" t="str">
+        <f>Tasks!C8</f>
+        <v>desktop -&gt; user data</v>
+      </c>
+      <c r="D15" s="22">
+        <f>Tasks!J8</f>
+        <v>14</v>
+      </c>
+      <c r="E15" s="22">
+        <f>Tasks!I8-Tasks!J8</f>
         <v>7</v>
       </c>
-      <c r="D14" s="23">
-        <f>Sheet1!E7-Sheet1!F7</f>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:81" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <f>Tasks!B9</f>
+        <v>API</v>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>Tasks!C9</f>
+        <v>websocket -&gt; userdata</v>
+      </c>
+      <c r="D16" s="22">
+        <f>Tasks!J9</f>
+        <v>14</v>
+      </c>
+      <c r="E16" s="22">
+        <f>Tasks!I9-Tasks!J9</f>
         <v>7</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:80" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="str">
-        <f>Sheet1!B8</f>
-        <v>desktop -&gt; user data</v>
-      </c>
-      <c r="C15" s="23">
-        <f>Sheet1!F8</f>
+    <row r="17" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <f>Tasks!B10</f>
+        <v>API</v>
+      </c>
+      <c r="C17" s="15" t="str">
+        <f>Tasks!C10</f>
+        <v>Javascript -&gt; user data</v>
+      </c>
+      <c r="D17" s="22">
+        <f>Tasks!J10</f>
         <v>14</v>
       </c>
-      <c r="D15" s="23">
-        <f>Sheet1!E8-Sheet1!F8</f>
+      <c r="E17" s="22">
+        <f>Tasks!I10-Tasks!J10</f>
         <v>7</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:80" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="str">
-        <f>Sheet1!B9</f>
-        <v>websocket -&gt; userdata</v>
-      </c>
-      <c r="C16" s="23">
-        <f>Sheet1!F9</f>
+    <row r="18" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <f>Tasks!B11</f>
+        <v>API</v>
+      </c>
+      <c r="C18" s="15" t="str">
+        <f>Tasks!C11</f>
+        <v>desktop -&gt; game session info</v>
+      </c>
+      <c r="D18" s="22">
+        <f>Tasks!J11</f>
+        <v>21</v>
+      </c>
+      <c r="E18" s="22">
+        <f>Tasks!I11-Tasks!J11</f>
+        <v>7</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="str">
+        <f>Tasks!B12</f>
+        <v>API</v>
+      </c>
+      <c r="C19" s="15" t="str">
+        <f>Tasks!C12</f>
+        <v>websocket -&gt; game session info</v>
+      </c>
+      <c r="D19" s="22">
+        <f>Tasks!J12</f>
+        <v>21</v>
+      </c>
+      <c r="E19" s="22">
+        <f>Tasks!I12-Tasks!J12</f>
+        <v>7</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <f>Tasks!B13</f>
+        <v>API</v>
+      </c>
+      <c r="C20" s="15" t="str">
+        <f>Tasks!C13</f>
+        <v>Javascript -&gt; game session info</v>
+      </c>
+      <c r="D20" s="22">
+        <f>Tasks!J13</f>
+        <v>21</v>
+      </c>
+      <c r="E20" s="22">
+        <f>Tasks!I13-Tasks!J13</f>
+        <v>7</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="str">
+        <f>Tasks!B14</f>
+        <v>API</v>
+      </c>
+      <c r="C21" s="15" t="str">
+        <f>Tasks!C14</f>
+        <v>desktop -&gt; peer game sessions</v>
+      </c>
+      <c r="D21" s="22">
+        <f>Tasks!J14</f>
+        <v>28</v>
+      </c>
+      <c r="E21" s="22">
+        <f>Tasks!I14-Tasks!J14</f>
+        <v>7</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="str">
+        <f>Tasks!B15</f>
+        <v>API</v>
+      </c>
+      <c r="C22" s="15" t="str">
+        <f>Tasks!C15</f>
+        <v>desktop -&gt; session / peer matching</v>
+      </c>
+      <c r="D22" s="22">
+        <f>Tasks!J15</f>
+        <v>28</v>
+      </c>
+      <c r="E22" s="22">
+        <f>Tasks!I15-Tasks!J15</f>
+        <v>7</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="str">
+        <f>Tasks!B16</f>
+        <v>API</v>
+      </c>
+      <c r="C23" s="15" t="str">
+        <f>Tasks!C16</f>
+        <v>debug and testing feedback</v>
+      </c>
+      <c r="D23" s="22">
+        <f>Tasks!J16</f>
+        <v>42</v>
+      </c>
+      <c r="E23" s="22">
+        <f>Tasks!I16-Tasks!J16</f>
+        <v>9</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="str">
+        <f>Tasks!B17</f>
+        <v>API</v>
+      </c>
+      <c r="C24" s="15" t="str">
+        <f>Tasks!C17</f>
+        <v>Kinect v2 Support</v>
+      </c>
+      <c r="D24" s="22">
+        <f>Tasks!J17</f>
+        <v>49</v>
+      </c>
+      <c r="E24" s="22">
+        <f>Tasks!I17-Tasks!J17</f>
+        <v>7</v>
+      </c>
+      <c r="F24" s="16">
+        <v>13</v>
+      </c>
+      <c r="G24" s="16">
+        <v>2</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" t="str">
+        <f>Tasks!B18</f>
+        <v>Game</v>
+      </c>
+      <c r="C25" s="15" t="str">
+        <f>Tasks!C18</f>
+        <v>Create Concept</v>
+      </c>
+      <c r="D25" s="22">
+        <f>Tasks!J18</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="22">
+        <f>Tasks!I18-Tasks!J18</f>
+        <v>4</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" t="str">
+        <f>Tasks!B19</f>
+        <v>Game</v>
+      </c>
+      <c r="C26" s="15" t="str">
+        <f>Tasks!C19</f>
+        <v>Design visuals</v>
+      </c>
+      <c r="D26" s="22">
+        <f>Tasks!J19</f>
+        <v>7</v>
+      </c>
+      <c r="E26" s="22">
+        <f>Tasks!I19-Tasks!J19</f>
+        <v>7</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" t="str">
+        <f>Tasks!B20</f>
+        <v>Game</v>
+      </c>
+      <c r="C27" s="15" t="str">
+        <f>Tasks!C20</f>
+        <v>Create Assets</v>
+      </c>
+      <c r="D27" s="22">
+        <f>Tasks!J20</f>
         <v>14</v>
       </c>
-      <c r="D16" s="23">
-        <f>Sheet1!E9-Sheet1!F9</f>
+      <c r="E27" s="22">
+        <f>Tasks!I20-Tasks!J20</f>
         <v>7</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="str">
+        <f>Tasks!B21</f>
+        <v>Game</v>
+      </c>
+      <c r="C28" s="15" t="str">
+        <f>Tasks!C21</f>
+        <v>Dot Generation</v>
+      </c>
+      <c r="D28" s="22">
+        <f>Tasks!J21</f>
+        <v>7</v>
+      </c>
+      <c r="E28" s="22">
+        <f>Tasks!I21-Tasks!J21</f>
+        <v>7</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="str">
-        <f>Sheet1!B10</f>
-        <v>Javascript -&gt; user data</v>
-      </c>
-      <c r="C17" s="23">
-        <f>Sheet1!F10</f>
+    <row r="29" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" t="str">
+        <f>Tasks!B22</f>
+        <v>Game</v>
+      </c>
+      <c r="C29" s="15" t="str">
+        <f>Tasks!C22</f>
+        <v>Colecting Dots</v>
+      </c>
+      <c r="D29" s="22">
+        <f>Tasks!J22</f>
         <v>14</v>
       </c>
-      <c r="D17" s="23">
-        <f>Sheet1!E10-Sheet1!F10</f>
+      <c r="E29" s="22">
+        <f>Tasks!I22-Tasks!J22</f>
         <v>7</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="str">
-        <f>Sheet1!B11</f>
-        <v>desktop -&gt; game session info</v>
-      </c>
-      <c r="C18" s="23">
-        <f>Sheet1!F11</f>
+    <row r="30" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="str">
+        <f>Tasks!B23</f>
+        <v>Game</v>
+      </c>
+      <c r="C30" s="15" t="str">
+        <f>Tasks!C23</f>
+        <v>Large Dot Creation</v>
+      </c>
+      <c r="D30" s="22">
+        <f>Tasks!J23</f>
         <v>21</v>
       </c>
-      <c r="D18" s="23">
-        <f>Sheet1!E11-Sheet1!F11</f>
+      <c r="E30" s="22">
+        <f>Tasks!I23-Tasks!J23</f>
         <v>7</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="str">
-        <f>Sheet1!B12</f>
-        <v>websocket -&gt; game session info</v>
-      </c>
-      <c r="C19" s="23">
-        <f>Sheet1!F12</f>
+    <row r="31" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" t="str">
+        <f>Tasks!B24</f>
+        <v>Game</v>
+      </c>
+      <c r="C31" s="15" t="str">
+        <f>Tasks!C24</f>
+        <v>Large dot functionality</v>
+      </c>
+      <c r="D31" s="22">
+        <f>Tasks!J24</f>
         <v>21</v>
       </c>
-      <c r="D19" s="23">
-        <f>Sheet1!E12-Sheet1!F12</f>
+      <c r="E31" s="22">
+        <f>Tasks!I24-Tasks!J24</f>
         <v>7</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="str">
-        <f>Sheet1!B13</f>
-        <v>Javascript -&gt; game session info</v>
-      </c>
-      <c r="C20" s="23">
-        <f>Sheet1!F13</f>
-        <v>21</v>
-      </c>
-      <c r="D20" s="23">
-        <f>Sheet1!E13-Sheet1!F13</f>
+    <row r="32" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <f>Tasks!B25</f>
+        <v>Game</v>
+      </c>
+      <c r="C32" s="15" t="str">
+        <f>Tasks!C25</f>
+        <v>Colour assignment</v>
+      </c>
+      <c r="D32" s="22">
+        <f>Tasks!J25</f>
+        <v>28</v>
+      </c>
+      <c r="E32" s="22">
+        <f>Tasks!I25-Tasks!J25</f>
         <v>7</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="str">
-        <f>Sheet1!B14</f>
-        <v>desktop -&gt; peer game sessions</v>
-      </c>
-      <c r="C21" s="23">
-        <f>Sheet1!F14</f>
-        <v>28</v>
-      </c>
-      <c r="D21" s="23">
-        <f>Sheet1!E14-Sheet1!F14</f>
-        <v>7</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="str">
-        <f>Sheet1!B15</f>
-        <v>desktop -&gt; session / peer matching</v>
-      </c>
-      <c r="C22" s="23">
-        <f>Sheet1!F15</f>
-        <v>28</v>
-      </c>
-      <c r="D22" s="23">
-        <f>Sheet1!E15-Sheet1!F15</f>
-        <v>7</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="str">
-        <f>Sheet1!B16</f>
-        <v>debug and testing feedback</v>
-      </c>
-      <c r="C23" s="23">
-        <f>Sheet1!F16</f>
-        <v>42</v>
-      </c>
-      <c r="D23" s="23">
-        <f>Sheet1!E16-Sheet1!F16</f>
-        <v>9</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="str">
-        <f>Sheet1!B17</f>
-        <v>Create Concept</v>
-      </c>
-      <c r="C24" s="23">
-        <f>Sheet1!F17</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="23">
-        <f>Sheet1!E17-Sheet1!F17</f>
-        <v>4</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="str">
-        <f>Sheet1!B18</f>
-        <v>Design visuals</v>
-      </c>
-      <c r="C25" s="23">
-        <f>Sheet1!F18</f>
-        <v>7</v>
-      </c>
-      <c r="D25" s="23">
-        <f>Sheet1!E18-Sheet1!F18</f>
-        <v>7</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="str">
-        <f>Sheet1!B19</f>
-        <v>Create Assets</v>
-      </c>
-      <c r="C26" s="23">
-        <f>Sheet1!F19</f>
-        <v>14</v>
-      </c>
-      <c r="D26" s="23">
-        <f>Sheet1!E19-Sheet1!F19</f>
-        <v>7</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="str">
-        <f>Sheet1!B20</f>
-        <v xml:space="preserve">Create Base Environment </v>
-      </c>
-      <c r="C27" s="23">
-        <f>Sheet1!F20</f>
-        <v>7</v>
-      </c>
-      <c r="D27" s="23">
-        <f>Sheet1!E20-Sheet1!F20</f>
-        <v>7</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="str">
-        <f>Sheet1!B21</f>
-        <v>Implement flocking system</v>
-      </c>
-      <c r="C28" s="23">
-        <f>Sheet1!F21</f>
-        <v>14</v>
-      </c>
-      <c r="D28" s="23">
-        <f>Sheet1!E21-Sheet1!F21</f>
-        <v>7</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="str">
-        <f>Sheet1!B22</f>
-        <v>Colour assignment</v>
-      </c>
-      <c r="C29" s="23">
-        <f>Sheet1!F22</f>
-        <v>21</v>
-      </c>
-      <c r="D29" s="23">
-        <f>Sheet1!E22-Sheet1!F22</f>
-        <v>7</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="str">
-        <f>Sheet1!B23</f>
-        <v>Initial mouse interaction</v>
-      </c>
-      <c r="C30" s="23">
-        <f>Sheet1!F23</f>
-        <v>21</v>
-      </c>
-      <c r="D30" s="23">
-        <f>Sheet1!E23-Sheet1!F23</f>
-        <v>7</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="str">
-        <f>Sheet1!B24</f>
-        <v>Local Kinect Interaction</v>
-      </c>
-      <c r="C31" s="23">
-        <f>Sheet1!F24</f>
-        <v>28</v>
-      </c>
-      <c r="D31" s="23">
-        <f>Sheet1!E24-Sheet1!F24</f>
-        <v>7</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15" t="str">
-        <f>Sheet1!B25</f>
-        <v>Implement scoring system</v>
-      </c>
-      <c r="C32" s="23">
-        <f>Sheet1!F25</f>
-        <v>35</v>
-      </c>
-      <c r="D32" s="23">
-        <f>Sheet1!E25-Sheet1!F25</f>
-        <v>7</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -5149,26 +7888,30 @@
       <c r="Z32"/>
       <c r="AA32"/>
       <c r="AB32"/>
+      <c r="AC32"/>
     </row>
-    <row r="33" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15" t="str">
-        <f>Sheet1!B26</f>
-        <v>Implement win/lose</v>
-      </c>
-      <c r="C33" s="23">
-        <f>Sheet1!F26</f>
+    <row r="33" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" t="str">
+        <f>Tasks!B26</f>
+        <v>Game</v>
+      </c>
+      <c r="C33" s="15" t="str">
+        <f>Tasks!C26</f>
+        <v>Implement scoring system</v>
+      </c>
+      <c r="D33" s="22">
+        <f>Tasks!J26</f>
         <v>35</v>
       </c>
-      <c r="D33" s="23">
-        <f>Sheet1!E26-Sheet1!F26</f>
+      <c r="E33" s="22">
+        <f>Tasks!I26-Tasks!J26</f>
         <v>7</v>
       </c>
-      <c r="E33" s="16"/>
       <c r="F33" s="16"/>
-      <c r="G33" s="17">
+      <c r="G33" s="16"/>
+      <c r="H33" s="17">
         <v>0</v>
       </c>
-      <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -5189,26 +7932,30 @@
       <c r="Z33"/>
       <c r="AA33"/>
       <c r="AB33"/>
+      <c r="AC33"/>
     </row>
-    <row r="34" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="15" t="str">
-        <f>Sheet1!B27</f>
-        <v>Interface</v>
-      </c>
-      <c r="C34" s="23">
-        <f>Sheet1!F27</f>
+    <row r="34" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" t="str">
+        <f>Tasks!B27</f>
+        <v>Game</v>
+      </c>
+      <c r="C34" s="15" t="str">
+        <f>Tasks!C27</f>
+        <v>Implement win/lose</v>
+      </c>
+      <c r="D34" s="22">
+        <f>Tasks!J27</f>
         <v>35</v>
       </c>
-      <c r="D34" s="23">
-        <f>Sheet1!E27-Sheet1!F27</f>
+      <c r="E34" s="22">
+        <f>Tasks!I27-Tasks!J27</f>
         <v>7</v>
       </c>
-      <c r="E34" s="16"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="17">
+      <c r="G34" s="16"/>
+      <c r="H34" s="17">
         <v>0</v>
       </c>
-      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -5229,26 +7976,30 @@
       <c r="Z34"/>
       <c r="AA34"/>
       <c r="AB34"/>
+      <c r="AC34"/>
     </row>
-    <row r="35" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="15" t="str">
-        <f>Sheet1!B28</f>
-        <v>Remote Kinect Interaction</v>
-      </c>
-      <c r="C35" s="23">
-        <f>Sheet1!F28</f>
+    <row r="35" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" t="str">
+        <f>Tasks!B28</f>
+        <v>Game</v>
+      </c>
+      <c r="C35" s="15" t="str">
+        <f>Tasks!C28</f>
+        <v>Interface</v>
+      </c>
+      <c r="D35" s="22">
+        <f>Tasks!J28</f>
         <v>35</v>
       </c>
-      <c r="D35" s="23">
-        <f>Sheet1!E28-Sheet1!F28</f>
-        <v>13</v>
-      </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="22">
+        <f>Tasks!I28-Tasks!J28</f>
+        <v>7</v>
+      </c>
       <c r="F35" s="16"/>
-      <c r="G35" s="17">
+      <c r="G35" s="16"/>
+      <c r="H35" s="17">
         <v>0</v>
       </c>
-      <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -5269,26 +8020,30 @@
       <c r="Z35"/>
       <c r="AA35"/>
       <c r="AB35"/>
+      <c r="AC35"/>
     </row>
-    <row r="36" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="15" t="str">
-        <f>Sheet1!B29</f>
-        <v>Create Poster, info cards</v>
-      </c>
-      <c r="C36" s="23">
-        <f>Sheet1!F29</f>
-        <v>14</v>
-      </c>
-      <c r="D36" s="23">
-        <f>Sheet1!E29-Sheet1!F29</f>
-        <v>7</v>
-      </c>
-      <c r="E36" s="16"/>
+    <row r="36" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" t="str">
+        <f>Tasks!B29</f>
+        <v>Game</v>
+      </c>
+      <c r="C36" s="15" t="str">
+        <f>Tasks!C29</f>
+        <v>Remote Interaction</v>
+      </c>
+      <c r="D36" s="22">
+        <f>Tasks!J29</f>
+        <v>35</v>
+      </c>
+      <c r="E36" s="22">
+        <f>Tasks!I29-Tasks!J29</f>
+        <v>13</v>
+      </c>
       <c r="F36" s="16"/>
-      <c r="G36" s="17">
+      <c r="G36" s="16"/>
+      <c r="H36" s="17">
         <v>0</v>
       </c>
-      <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
@@ -5309,26 +8064,30 @@
       <c r="Z36"/>
       <c r="AA36"/>
       <c r="AB36"/>
+      <c r="AC36"/>
     </row>
-    <row r="37" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15" t="str">
-        <f>Sheet1!B30</f>
-        <v>Contact lower IMD Students</v>
-      </c>
-      <c r="C37" s="23">
-        <f>Sheet1!F30</f>
-        <v>28</v>
-      </c>
-      <c r="D37" s="23">
-        <f>Sheet1!E30-Sheet1!F30</f>
-        <v>12</v>
-      </c>
-      <c r="E37" s="16"/>
+    <row r="37" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" t="str">
+        <f>Tasks!B30</f>
+        <v>Marketing</v>
+      </c>
+      <c r="C37" s="15" t="str">
+        <f>Tasks!C30</f>
+        <v>Create Poster, info cards</v>
+      </c>
+      <c r="D37" s="22">
+        <f>Tasks!J30</f>
+        <v>14</v>
+      </c>
+      <c r="E37" s="22">
+        <f>Tasks!I30-Tasks!J30</f>
+        <v>7</v>
+      </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="17">
+      <c r="G37" s="16"/>
+      <c r="H37" s="17">
         <v>0</v>
       </c>
-      <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -5349,26 +8108,30 @@
       <c r="Z37"/>
       <c r="AA37"/>
       <c r="AB37"/>
+      <c r="AC37"/>
     </row>
-    <row r="38" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="15" t="str">
-        <f>Sheet1!B31</f>
-        <v>Website - Concept</v>
-      </c>
-      <c r="C38" s="23">
-        <f>Sheet1!F31</f>
-        <v>1</v>
-      </c>
-      <c r="D38" s="23">
-        <f>Sheet1!E31-Sheet1!F31</f>
-        <v>4</v>
-      </c>
-      <c r="E38" s="16"/>
+    <row r="38" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" t="str">
+        <f>Tasks!B31</f>
+        <v>Marketing</v>
+      </c>
+      <c r="C38" s="15" t="str">
+        <f>Tasks!C31</f>
+        <v>Contact lower IMD Students</v>
+      </c>
+      <c r="D38" s="22">
+        <f>Tasks!J31</f>
+        <v>28</v>
+      </c>
+      <c r="E38" s="22">
+        <f>Tasks!I31-Tasks!J31</f>
+        <v>12</v>
+      </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="17">
+      <c r="G38" s="16"/>
+      <c r="H38" s="17">
         <v>0</v>
       </c>
-      <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
@@ -5389,26 +8152,34 @@
       <c r="Z38"/>
       <c r="AA38"/>
       <c r="AB38"/>
+      <c r="AC38"/>
     </row>
-    <row r="39" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="15" t="str">
-        <f>Sheet1!B32</f>
-        <v>Website - Final</v>
-      </c>
-      <c r="C39" s="23">
-        <f>Sheet1!F32</f>
-        <v>63</v>
-      </c>
-      <c r="D39" s="23">
-        <f>Sheet1!E32-Sheet1!F32</f>
-        <v>8</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17">
-        <v>0</v>
-      </c>
-      <c r="H39"/>
+    <row r="39" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <f>Tasks!B32</f>
+        <v>Marketing</v>
+      </c>
+      <c r="C39" s="15" t="str">
+        <f>Tasks!C32</f>
+        <v>Website - Concept</v>
+      </c>
+      <c r="D39" s="22">
+        <f>Tasks!J32</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="22">
+        <f>Tasks!I32-Tasks!J32</f>
+        <v>4</v>
+      </c>
+      <c r="F39" s="16">
+        <v>1</v>
+      </c>
+      <c r="G39" s="16">
+        <v>4</v>
+      </c>
+      <c r="H39" s="17">
+        <v>1</v>
+      </c>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
@@ -5429,26 +8200,34 @@
       <c r="Z39"/>
       <c r="AA39"/>
       <c r="AB39"/>
+      <c r="AC39"/>
     </row>
-    <row r="40" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="15" t="str">
-        <f>Sheet1!B33</f>
-        <v>Video</v>
-      </c>
-      <c r="C40" s="23">
-        <f>Sheet1!F33</f>
-        <v>63</v>
-      </c>
-      <c r="D40" s="23">
-        <f>Sheet1!E33-Sheet1!F33</f>
-        <v>8</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17">
-        <v>0</v>
-      </c>
-      <c r="H40"/>
+    <row r="40" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <f>Tasks!B33</f>
+        <v>Marketing</v>
+      </c>
+      <c r="C40" s="15" t="str">
+        <f>Tasks!C33</f>
+        <v>Website - Initial</v>
+      </c>
+      <c r="D40" s="22">
+        <f>Tasks!J33</f>
+        <v>7</v>
+      </c>
+      <c r="E40" s="22">
+        <f>Tasks!I33-Tasks!J33</f>
+        <v>7</v>
+      </c>
+      <c r="F40" s="16">
+        <v>7</v>
+      </c>
+      <c r="G40" s="16">
+        <v>7</v>
+      </c>
+      <c r="H40" s="17">
+        <v>1</v>
+      </c>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
@@ -5469,26 +8248,32 @@
       <c r="Z40"/>
       <c r="AA40"/>
       <c r="AB40"/>
+      <c r="AC40"/>
     </row>
-    <row r="41" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="15" t="str">
-        <f>Sheet1!B34</f>
-        <v>Stickers</v>
-      </c>
-      <c r="C41" s="23">
-        <f>Sheet1!F34</f>
-        <v>14</v>
-      </c>
-      <c r="D41" s="23">
-        <f>Sheet1!E34-Sheet1!F34</f>
-        <v>7</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17">
+    <row r="41" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" t="str">
+        <f>Tasks!B34</f>
+        <v>Marketing</v>
+      </c>
+      <c r="C41" s="15" t="str">
+        <f>Tasks!C34</f>
+        <v>Website - Final</v>
+      </c>
+      <c r="D41" s="22">
+        <f>Tasks!J34</f>
+        <v>63</v>
+      </c>
+      <c r="E41" s="22">
+        <f>Tasks!I34-Tasks!J34</f>
+        <v>8</v>
+      </c>
+      <c r="F41" s="16">
+        <v>8</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17">
         <v>0</v>
       </c>
-      <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -5509,26 +8294,30 @@
       <c r="Z41"/>
       <c r="AA41"/>
       <c r="AB41"/>
+      <c r="AC41"/>
     </row>
-    <row r="42" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="15" t="str">
-        <f>Sheet1!B35</f>
-        <v>Contact BIT school about demo day</v>
-      </c>
-      <c r="C42" s="23">
-        <f>Sheet1!F35</f>
-        <v>28</v>
-      </c>
-      <c r="D42" s="23">
-        <f>Sheet1!E35-Sheet1!F35</f>
-        <v>12</v>
-      </c>
-      <c r="E42" s="16"/>
+    <row r="42" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" t="str">
+        <f>Tasks!B35</f>
+        <v>Marketing</v>
+      </c>
+      <c r="C42" s="15" t="str">
+        <f>Tasks!C35</f>
+        <v>Video</v>
+      </c>
+      <c r="D42" s="22">
+        <f>Tasks!J35</f>
+        <v>63</v>
+      </c>
+      <c r="E42" s="22">
+        <f>Tasks!I35-Tasks!J35</f>
+        <v>8</v>
+      </c>
       <c r="F42" s="16"/>
-      <c r="G42" s="17">
+      <c r="G42" s="16"/>
+      <c r="H42" s="17">
         <v>0</v>
       </c>
-      <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -5549,26 +8338,30 @@
       <c r="Z42"/>
       <c r="AA42"/>
       <c r="AB42"/>
+      <c r="AC42"/>
     </row>
-    <row r="43" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="15" t="str">
-        <f>Sheet1!B36</f>
-        <v>Secure equipment for demo day</v>
-      </c>
-      <c r="C43" s="23">
-        <f>Sheet1!F36</f>
-        <v>35</v>
-      </c>
-      <c r="D43" s="23">
-        <f>Sheet1!E36-Sheet1!F36</f>
-        <v>12</v>
-      </c>
-      <c r="E43" s="16"/>
+    <row r="43" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <f>Tasks!B36</f>
+        <v>Marketing</v>
+      </c>
+      <c r="C43" s="15" t="str">
+        <f>Tasks!C36</f>
+        <v>Stickers</v>
+      </c>
+      <c r="D43" s="22">
+        <f>Tasks!J36</f>
+        <v>14</v>
+      </c>
+      <c r="E43" s="22">
+        <f>Tasks!I36-Tasks!J36</f>
+        <v>7</v>
+      </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="17">
+      <c r="G43" s="16"/>
+      <c r="H43" s="17">
         <v>0</v>
       </c>
-      <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -5589,26 +8382,30 @@
       <c r="Z43"/>
       <c r="AA43"/>
       <c r="AB43"/>
+      <c r="AC43"/>
     </row>
-    <row r="44" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="15" t="str">
-        <f>Sheet1!B37</f>
-        <v>Atrium - public demo</v>
-      </c>
-      <c r="C44" s="23">
-        <f>Sheet1!F37</f>
-        <v>49</v>
-      </c>
-      <c r="D44" s="23">
-        <f>Sheet1!E37-Sheet1!F37</f>
-        <v>10</v>
-      </c>
-      <c r="E44" s="16"/>
+    <row r="44" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <f>Tasks!B37</f>
+        <v>Marketing</v>
+      </c>
+      <c r="C44" s="15" t="str">
+        <f>Tasks!C37</f>
+        <v>Contact BIT school about demo day</v>
+      </c>
+      <c r="D44" s="22">
+        <f>Tasks!J37</f>
+        <v>28</v>
+      </c>
+      <c r="E44" s="22">
+        <f>Tasks!I37-Tasks!J37</f>
+        <v>12</v>
+      </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="17">
+      <c r="G44" s="16"/>
+      <c r="H44" s="17">
         <v>0</v>
       </c>
-      <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -5629,26 +8426,30 @@
       <c r="Z44"/>
       <c r="AA44"/>
       <c r="AB44"/>
+      <c r="AC44"/>
     </row>
-    <row r="45" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="15" t="str">
-        <f>Sheet1!B38</f>
-        <v>Find subject(s) to use API</v>
-      </c>
-      <c r="C45" s="23">
-        <f>Sheet1!F38</f>
-        <v>28</v>
-      </c>
-      <c r="D45" s="23">
-        <f>Sheet1!E38-Sheet1!F38</f>
+    <row r="45" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <f>Tasks!B38</f>
+        <v>Marketing</v>
+      </c>
+      <c r="C45" s="15" t="str">
+        <f>Tasks!C38</f>
+        <v>Secure equipment for demo day</v>
+      </c>
+      <c r="D45" s="22">
+        <f>Tasks!J38</f>
+        <v>35</v>
+      </c>
+      <c r="E45" s="22">
+        <f>Tasks!I38-Tasks!J38</f>
         <v>12</v>
       </c>
-      <c r="E45" s="16"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="17">
+      <c r="G45" s="16"/>
+      <c r="H45" s="17">
         <v>0</v>
       </c>
-      <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -5669,26 +8470,30 @@
       <c r="Z45"/>
       <c r="AA45"/>
       <c r="AB45"/>
+      <c r="AC45"/>
     </row>
-    <row r="46" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="15" t="str">
-        <f>Sheet1!B39</f>
-        <v>Create user testing form evaluation</v>
-      </c>
-      <c r="C46" s="23">
-        <f>Sheet1!F39</f>
-        <v>35</v>
-      </c>
-      <c r="D46" s="23">
-        <f>Sheet1!E39-Sheet1!F39</f>
-        <v>12</v>
-      </c>
-      <c r="E46" s="16"/>
+    <row r="46" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" t="str">
+        <f>Tasks!B39</f>
+        <v>Marketing</v>
+      </c>
+      <c r="C46" s="15" t="str">
+        <f>Tasks!C39</f>
+        <v>Atrium - public demo</v>
+      </c>
+      <c r="D46" s="22">
+        <f>Tasks!J39</f>
+        <v>49</v>
+      </c>
+      <c r="E46" s="22">
+        <f>Tasks!I39-Tasks!J39</f>
+        <v>10</v>
+      </c>
       <c r="F46" s="16"/>
-      <c r="G46" s="17">
+      <c r="G46" s="16"/>
+      <c r="H46" s="17">
         <v>0</v>
       </c>
-      <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -5709,26 +8514,30 @@
       <c r="Z46"/>
       <c r="AA46"/>
       <c r="AB46"/>
+      <c r="AC46"/>
     </row>
-    <row r="47" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="15" t="str">
-        <f>Sheet1!B40</f>
-        <v>Support subjects during development</v>
-      </c>
-      <c r="C47" s="23" t="e">
-        <f>Sheet1!F40</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D47" s="23" t="e">
-        <f>Sheet1!E40-Sheet1!F40</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E47" s="16"/>
+    <row r="47" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <f>Tasks!B40</f>
+        <v>Testing</v>
+      </c>
+      <c r="C47" s="15" t="str">
+        <f>Tasks!C40</f>
+        <v>Find subject(s) to use API</v>
+      </c>
+      <c r="D47" s="22">
+        <f>Tasks!J40</f>
+        <v>28</v>
+      </c>
+      <c r="E47" s="22">
+        <f>Tasks!I40-Tasks!J40</f>
+        <v>12</v>
+      </c>
       <c r="F47" s="16"/>
-      <c r="G47" s="17">
+      <c r="G47" s="16"/>
+      <c r="H47" s="17">
         <v>0</v>
       </c>
-      <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -5749,10 +8558,30 @@
       <c r="Z47"/>
       <c r="AA47"/>
       <c r="AB47"/>
+      <c r="AC47"/>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B48" s="15"/>
-      <c r="H48"/>
+    <row r="48" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" t="str">
+        <f>Tasks!B41</f>
+        <v>Testing</v>
+      </c>
+      <c r="C48" s="15" t="str">
+        <f>Tasks!C41</f>
+        <v>Create user testing form evaluation</v>
+      </c>
+      <c r="D48" s="22">
+        <f>Tasks!J41</f>
+        <v>35</v>
+      </c>
+      <c r="E48" s="22">
+        <f>Tasks!I41-Tasks!J41</f>
+        <v>12</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17">
+        <v>0</v>
+      </c>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
@@ -5773,430 +8602,1403 @@
       <c r="Z48"/>
       <c r="AA48"/>
       <c r="AB48"/>
+      <c r="AC48"/>
     </row>
-    <row r="49" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="15"/>
+    <row r="49" spans="2:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <f>Tasks!B42</f>
+        <v>Testing</v>
+      </c>
+      <c r="C49" s="15" t="str">
+        <f>Tasks!C42</f>
+        <v>Support subjects during development</v>
+      </c>
+      <c r="D49" s="22" t="e">
+        <f>Tasks!J42</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E49" s="22" t="e">
+        <f>Tasks!I42-Tasks!J42</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17">
+        <v>0</v>
+      </c>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
     </row>
-    <row r="50" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C50" s="15"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
     </row>
-    <row r="51" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="15"/>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C51" s="15"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
     </row>
-    <row r="52" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="15"/>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C52" s="15"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
     </row>
-    <row r="53" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="15"/>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C53" s="15"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
     </row>
-    <row r="54" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="15"/>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C54" s="15"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
     </row>
-    <row r="55" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="15"/>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C55" s="15"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
     </row>
-    <row r="56" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="15"/>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C56" s="15"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
     </row>
-    <row r="57" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="15"/>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C57" s="15"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
     </row>
-    <row r="58" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="15"/>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C58" s="15"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
     </row>
-    <row r="59" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="15"/>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C59" s="15"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
     </row>
-    <row r="60" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="15"/>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C60" s="15"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
     </row>
-    <row r="61" spans="2:2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="15"/>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C61" s="15"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G4"/>
+    <mergeCell ref="B2:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:BP47">
-    <cfRule type="expression" dxfId="227" priority="120">
+  <conditionalFormatting sqref="J9:BQ47">
+    <cfRule type="expression" dxfId="406" priority="312">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="122">
+    <cfRule type="expression" dxfId="405" priority="314">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="123">
+    <cfRule type="expression" dxfId="404" priority="315">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="124">
+    <cfRule type="expression" dxfId="403" priority="316">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="125">
+    <cfRule type="expression" dxfId="402" priority="317">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="126">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="221" priority="130">
+    <cfRule type="expression" dxfId="401" priority="318">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="400" priority="322">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="131">
+    <cfRule type="expression" dxfId="399" priority="323">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:BP48">
-    <cfRule type="expression" dxfId="219" priority="121">
-      <formula>TRUE</formula>
+  <conditionalFormatting sqref="J8:BQ8">
+    <cfRule type="expression" dxfId="397" priority="319">
+      <formula>J$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="218" priority="127">
-      <formula>I$8=period_selected</formula>
+  <conditionalFormatting sqref="BS8">
+    <cfRule type="expression" dxfId="396" priority="310">
+      <formula>BS$8=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU9:BU47">
+    <cfRule type="expression" dxfId="395" priority="283">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="394" priority="284">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="393" priority="285">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="392" priority="286">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="391" priority="287">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="390" priority="288">
+      <formula>BU$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="389" priority="290">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="388" priority="291">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU8">
+    <cfRule type="expression" dxfId="387" priority="289">
+      <formula>BU$8=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW9:BW47">
+    <cfRule type="expression" dxfId="386" priority="274">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="385" priority="275">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="384" priority="276">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="383" priority="277">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="382" priority="278">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="381" priority="279">
+      <formula>BW$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="380" priority="281">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="379" priority="282">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW8">
+    <cfRule type="expression" dxfId="378" priority="280">
+      <formula>BW$8=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BY9:BY47">
+    <cfRule type="expression" dxfId="377" priority="265">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="376" priority="266">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="375" priority="267">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="374" priority="268">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="373" priority="269">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="372" priority="270">
+      <formula>BY$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="371" priority="272">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="273">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BY8">
+    <cfRule type="expression" dxfId="369" priority="271">
+      <formula>BY$8=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA9:CA47">
+    <cfRule type="expression" dxfId="368" priority="256">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="367" priority="257">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="258">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="365" priority="259">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="260">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="261">
+      <formula>CA$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="263">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="264">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA8">
+    <cfRule type="expression" dxfId="360" priority="262">
+      <formula>CA$8=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CC9:CC47">
+    <cfRule type="expression" dxfId="359" priority="247">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="358" priority="248">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="249">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="356" priority="250">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="251">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="354" priority="252">
+      <formula>CC$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="353" priority="254">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="352" priority="255">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CC8">
+    <cfRule type="expression" dxfId="351" priority="253">
+      <formula>CC$8=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR9:BR47">
+    <cfRule type="expression" dxfId="350" priority="238">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="239">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="240">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="347" priority="241">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="242">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="345" priority="243">
+      <formula>BR$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="344" priority="245">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="343" priority="246">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR8">
-    <cfRule type="expression" dxfId="216" priority="118">
+    <cfRule type="expression" dxfId="342" priority="244">
       <formula>BR$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT9:BT47">
-    <cfRule type="expression" dxfId="197" priority="91">
+    <cfRule type="expression" dxfId="341" priority="229">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="92">
+    <cfRule type="expression" dxfId="340" priority="230">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="93">
+    <cfRule type="expression" dxfId="339" priority="231">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="94">
+    <cfRule type="expression" dxfId="338" priority="232">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="95">
+    <cfRule type="expression" dxfId="337" priority="233">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="96">
+    <cfRule type="expression" dxfId="336" priority="234">
       <formula>BT$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="98">
+    <cfRule type="expression" dxfId="335" priority="236">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="99">
+    <cfRule type="expression" dxfId="334" priority="237">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT8">
-    <cfRule type="expression" dxfId="181" priority="97">
+    <cfRule type="expression" dxfId="333" priority="235">
       <formula>BT$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV9:BV47">
-    <cfRule type="expression" dxfId="179" priority="82">
+    <cfRule type="expression" dxfId="332" priority="220">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="83">
+    <cfRule type="expression" dxfId="331" priority="221">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="84">
+    <cfRule type="expression" dxfId="330" priority="222">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="85">
+    <cfRule type="expression" dxfId="329" priority="223">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="86">
+    <cfRule type="expression" dxfId="328" priority="224">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="87">
+    <cfRule type="expression" dxfId="327" priority="225">
       <formula>BV$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="89">
+    <cfRule type="expression" dxfId="326" priority="227">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="90">
+    <cfRule type="expression" dxfId="325" priority="228">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV8">
-    <cfRule type="expression" dxfId="163" priority="88">
+    <cfRule type="expression" dxfId="324" priority="226">
       <formula>BV$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX9:BX47">
-    <cfRule type="expression" dxfId="161" priority="73">
+    <cfRule type="expression" dxfId="323" priority="211">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="74">
+    <cfRule type="expression" dxfId="322" priority="212">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="75">
+    <cfRule type="expression" dxfId="321" priority="213">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="76">
+    <cfRule type="expression" dxfId="320" priority="214">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="77">
+    <cfRule type="expression" dxfId="319" priority="215">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="78">
+    <cfRule type="expression" dxfId="318" priority="216">
       <formula>BX$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="80">
+    <cfRule type="expression" dxfId="317" priority="218">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="81">
+    <cfRule type="expression" dxfId="316" priority="219">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX8">
-    <cfRule type="expression" dxfId="145" priority="79">
+    <cfRule type="expression" dxfId="315" priority="217">
       <formula>BX$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ9:BZ47">
-    <cfRule type="expression" dxfId="143" priority="64">
+    <cfRule type="expression" dxfId="314" priority="202">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="65">
+    <cfRule type="expression" dxfId="313" priority="203">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="66">
+    <cfRule type="expression" dxfId="312" priority="204">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="67">
+    <cfRule type="expression" dxfId="311" priority="205">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="68">
+    <cfRule type="expression" dxfId="310" priority="206">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="69">
+    <cfRule type="expression" dxfId="309" priority="207">
       <formula>BZ$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="71">
+    <cfRule type="expression" dxfId="308" priority="209">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="72">
+    <cfRule type="expression" dxfId="307" priority="210">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ8">
-    <cfRule type="expression" dxfId="127" priority="70">
+    <cfRule type="expression" dxfId="306" priority="208">
       <formula>BZ$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB9:CB47">
-    <cfRule type="expression" dxfId="125" priority="55">
+    <cfRule type="expression" dxfId="305" priority="193">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="56">
+    <cfRule type="expression" dxfId="304" priority="194">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="57">
+    <cfRule type="expression" dxfId="303" priority="195">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="58">
+    <cfRule type="expression" dxfId="302" priority="196">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="59">
+    <cfRule type="expression" dxfId="301" priority="197">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="60">
+    <cfRule type="expression" dxfId="300" priority="198">
       <formula>CB$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="62">
+    <cfRule type="expression" dxfId="299" priority="200">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="63">
+    <cfRule type="expression" dxfId="298" priority="201">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB8">
-    <cfRule type="expression" dxfId="109" priority="61">
+    <cfRule type="expression" dxfId="297" priority="199">
       <formula>CB$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ9:BQ47">
-    <cfRule type="expression" dxfId="107" priority="46">
+  <conditionalFormatting sqref="J48:BQ48">
+    <cfRule type="expression" dxfId="287" priority="185">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="47">
+    <cfRule type="expression" dxfId="286" priority="186">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="48">
+    <cfRule type="expression" dxfId="285" priority="187">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="49">
+    <cfRule type="expression" dxfId="284" priority="188">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="50">
+    <cfRule type="expression" dxfId="283" priority="189">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="51">
-      <formula>BQ$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="53">
+    <cfRule type="expression" dxfId="282" priority="190">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="54">
+    <cfRule type="expression" dxfId="280" priority="192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ8">
-    <cfRule type="expression" dxfId="91" priority="52">
-      <formula>BQ$8=period_selected</formula>
+  <conditionalFormatting sqref="BU48">
+    <cfRule type="expression" dxfId="279" priority="177">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="178">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="179">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="180">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="181">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="182">
+      <formula>BU$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="183">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="184">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS9:BS47">
-    <cfRule type="expression" dxfId="89" priority="37">
+  <conditionalFormatting sqref="BW48">
+    <cfRule type="expression" dxfId="271" priority="169">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="38">
+    <cfRule type="expression" dxfId="270" priority="170">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="39">
+    <cfRule type="expression" dxfId="269" priority="171">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="40">
+    <cfRule type="expression" dxfId="268" priority="172">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="41">
+    <cfRule type="expression" dxfId="267" priority="173">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="42">
-      <formula>BS$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="44">
+    <cfRule type="expression" dxfId="266" priority="174">
+      <formula>BW$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="45">
+    <cfRule type="expression" dxfId="264" priority="176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS8">
-    <cfRule type="expression" dxfId="73" priority="43">
-      <formula>BS$8=period_selected</formula>
+  <conditionalFormatting sqref="BY48">
+    <cfRule type="expression" dxfId="263" priority="161">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="162">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="163">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="164">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="165">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="166">
+      <formula>BY$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="167">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="168">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU9:BU47">
-    <cfRule type="expression" dxfId="71" priority="28">
+  <conditionalFormatting sqref="CA48">
+    <cfRule type="expression" dxfId="255" priority="153">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="29">
+    <cfRule type="expression" dxfId="254" priority="154">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="30">
+    <cfRule type="expression" dxfId="253" priority="155">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="31">
+    <cfRule type="expression" dxfId="252" priority="156">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="32">
+    <cfRule type="expression" dxfId="251" priority="157">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="33">
+    <cfRule type="expression" dxfId="250" priority="158">
+      <formula>CA$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="159">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="160">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CC48">
+    <cfRule type="expression" dxfId="247" priority="145">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="146">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="147">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="148">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="149">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="150">
+      <formula>CC$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="151">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="152">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR48">
+    <cfRule type="expression" dxfId="239" priority="137">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="138">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="139">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="140">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="141">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="142">
+      <formula>BR$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="233" priority="143">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="144">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT48">
+    <cfRule type="expression" dxfId="231" priority="129">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="130">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="131">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="132">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="133">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="134">
+      <formula>BT$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="135">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="136">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV48">
+    <cfRule type="expression" dxfId="223" priority="121">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="122">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="123">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="124">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="125">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="126">
+      <formula>BV$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="127">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="128">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX48">
+    <cfRule type="expression" dxfId="215" priority="113">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="114">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="115">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="116">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="117">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="118">
+      <formula>BX$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="119">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="120">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ48">
+    <cfRule type="expression" dxfId="207" priority="105">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="106">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="107">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="108">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="109">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="110">
+      <formula>BZ$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="111">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="112">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CB48">
+    <cfRule type="expression" dxfId="199" priority="97">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="98">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="99">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="100">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="101">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="102">
+      <formula>CB$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="103">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="104">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:BQ49">
+    <cfRule type="expression" dxfId="191" priority="89">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="90">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="91">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="92">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="93">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="94">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="95">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="96">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU49">
+    <cfRule type="expression" dxfId="183" priority="81">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="82">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="83">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="84">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="85">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="86">
       <formula>BU$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="35">
+    <cfRule type="expression" dxfId="177" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="36">
+    <cfRule type="expression" dxfId="176" priority="88">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU8">
-    <cfRule type="expression" dxfId="55" priority="34">
-      <formula>BU$8=period_selected</formula>
+  <conditionalFormatting sqref="BW49">
+    <cfRule type="expression" dxfId="175" priority="73">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="74">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="75">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="76">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="77">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="78">
+      <formula>BW$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="79">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="80">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW9:BW47">
-    <cfRule type="expression" dxfId="53" priority="19">
+  <conditionalFormatting sqref="BY49">
+    <cfRule type="expression" dxfId="167" priority="65">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="20">
+    <cfRule type="expression" dxfId="166" priority="66">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="21">
+    <cfRule type="expression" dxfId="165" priority="67">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="22">
+    <cfRule type="expression" dxfId="164" priority="68">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="23">
+    <cfRule type="expression" dxfId="163" priority="69">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="24">
-      <formula>BW$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="26">
+    <cfRule type="expression" dxfId="162" priority="70">
+      <formula>BY$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="71">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="27">
+    <cfRule type="expression" dxfId="160" priority="72">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW8">
-    <cfRule type="expression" dxfId="37" priority="25">
-      <formula>BW$8=period_selected</formula>
+  <conditionalFormatting sqref="CA49">
+    <cfRule type="expression" dxfId="159" priority="57">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="58">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="59">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="60">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="61">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="62">
+      <formula>CA$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="63">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="64">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY9:BY47">
-    <cfRule type="expression" dxfId="35" priority="10">
+  <conditionalFormatting sqref="CC49">
+    <cfRule type="expression" dxfId="151" priority="49">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="150" priority="50">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="12">
+    <cfRule type="expression" dxfId="149" priority="51">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="13">
+    <cfRule type="expression" dxfId="148" priority="52">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="147" priority="53">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="15">
-      <formula>BY$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="17">
+    <cfRule type="expression" dxfId="146" priority="54">
+      <formula>CC$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="144" priority="56">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY8">
-    <cfRule type="expression" dxfId="19" priority="16">
-      <formula>BY$8=period_selected</formula>
+  <conditionalFormatting sqref="BR49">
+    <cfRule type="expression" dxfId="143" priority="41">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="42">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="43">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="44">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="45">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="46">
+      <formula>BR$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="47">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="48">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA9:CA47">
-    <cfRule type="expression" dxfId="17" priority="1">
+  <conditionalFormatting sqref="BT49">
+    <cfRule type="expression" dxfId="135" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="134" priority="34">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="133" priority="35">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="132" priority="36">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="131" priority="37">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
-      <formula>CA$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="130" priority="38">
+      <formula>BT$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="128" priority="40">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA8">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>CA$8=period_selected</formula>
+  <conditionalFormatting sqref="BV49">
+    <cfRule type="expression" dxfId="127" priority="25">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="26">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="27">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="28">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="29">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="30">
+      <formula>BV$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="31">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="32">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX49">
+    <cfRule type="expression" dxfId="119" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="22">
+      <formula>BX$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ49">
+    <cfRule type="expression" dxfId="111" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="14">
+      <formula>BZ$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CB49">
+    <cfRule type="expression" dxfId="103" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="6">
+      <formula>CB$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -6212,13 +10014,13 @@
               <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>14</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>14</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>200025</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>257175</xdr:rowOff>
@@ -6241,891 +10043,1513 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="28.75" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28.75" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="19" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="19" customWidth="1"/>
+    <col min="7" max="8" width="13.375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>70</v>
       </c>
       <c r="F1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>ROW() -1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>71</v>
       </c>
+      <c r="G2" s="20">
+        <v>41929</v>
+      </c>
+      <c r="H2" s="24">
+        <f ca="1">IF(EXACT( E2, Pickers!$B$5), "done", _xlfn.DAYS(  G2, TODAY() ) )</f>
+        <v>-7</v>
+      </c>
+      <c r="I2" s="21">
+        <f t="shared" ref="I2:I42" si="0">_xlfn.DAYS( G2, DATE(2014, 10, 10))</f>
+        <v>7</v>
+      </c>
+      <c r="J2" s="21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A42" si="1">ROW() -1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="20">
+      <c r="E3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="20">
         <v>41929</v>
       </c>
-      <c r="E2" s="22">
-        <f>_xlfn.DAYS( D2, DATE(2014, 10, 10))</f>
-        <v>7</v>
-      </c>
-      <c r="F2" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="20">
-        <v>41929</v>
-      </c>
-      <c r="E3" s="22">
-        <f t="shared" ref="E3:E40" si="0">_xlfn.DAYS( D3, DATE(2014, 10, 10))</f>
-        <v>7</v>
-      </c>
-      <c r="F3" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="20">
-        <v>41929</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="H3" s="24" t="str">
+        <f ca="1">IF(EXACT( E3, Pickers!$B$5), "done", _xlfn.DAYS(  G3, TODAY() ) )</f>
+        <v>done</v>
+      </c>
+      <c r="I3" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F4" s="22">
+      <c r="J3" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="20">
+        <v>41929</v>
+      </c>
+      <c r="H4" s="24" t="str">
+        <f ca="1">IF(EXACT( E4, Pickers!$B$5), "done", _xlfn.DAYS(  G4, TODAY() ) )</f>
+        <v>done</v>
+      </c>
+      <c r="I4" s="21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="20">
+      <c r="E5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="20">
         <v>41936</v>
       </c>
-      <c r="E5" s="22">
+      <c r="H5" s="24">
+        <f ca="1">IF(EXACT( E5, Pickers!$B$5), "done", _xlfn.DAYS(  G5, TODAY() ) )</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F5" s="22">
-        <f t="shared" ref="F3:F40" si="1">(E5-7) - (MOD(E5,7))</f>
+      <c r="J5" s="21">
+        <f t="shared" ref="J5:J42" si="2">(I5-7) - (MOD(I5,7))</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="20">
+      <c r="E6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="20">
         <v>41936</v>
       </c>
-      <c r="E6" s="22">
+      <c r="H6" s="24">
+        <f ca="1">IF(EXACT( E6, Pickers!$B$5), "done", _xlfn.DAYS(  G6, TODAY() ) )</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F6" s="22">
+      <c r="J6" s="21">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="20">
+        <v>41936</v>
+      </c>
+      <c r="H7" s="24" t="str">
+        <f ca="1">IF(EXACT( E7, Pickers!$B$5), "done", _xlfn.DAYS(  G7, TODAY() ) )</f>
+        <v>done</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
+      <c r="B8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="20">
+        <v>41943</v>
+      </c>
+      <c r="H8" s="24">
+        <f ca="1">IF(EXACT( E8, Pickers!$B$5), "done", _xlfn.DAYS(  G8, TODAY() ) )</f>
+        <v>7</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="20">
+      <c r="E9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="20">
+        <v>41943</v>
+      </c>
+      <c r="H9" s="24">
+        <f ca="1">IF(EXACT( E9, Pickers!$B$5), "done", _xlfn.DAYS(  G9, TODAY() ) )</f>
+        <v>7</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="20">
+        <v>41943</v>
+      </c>
+      <c r="H10" s="24">
+        <f ca="1">IF(EXACT( E10, Pickers!$B$5), "done", _xlfn.DAYS(  G10, TODAY() ) )</f>
+        <v>7</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="20">
+        <v>41950</v>
+      </c>
+      <c r="H11" s="24">
+        <f ca="1">IF(EXACT( E11, Pickers!$B$5), "done", _xlfn.DAYS(  G11, TODAY() ) )</f>
+        <v>14</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="20">
+        <v>41950</v>
+      </c>
+      <c r="H12" s="24">
+        <f ca="1">IF(EXACT( E12, Pickers!$B$5), "done", _xlfn.DAYS(  G12, TODAY() ) )</f>
+        <v>14</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="20">
+        <v>41950</v>
+      </c>
+      <c r="H13" s="24">
+        <f ca="1">IF(EXACT( E13, Pickers!$B$5), "done", _xlfn.DAYS(  G13, TODAY() ) )</f>
+        <v>14</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="20">
+        <v>41957</v>
+      </c>
+      <c r="H14" s="24">
+        <f ca="1">IF(EXACT( E14, Pickers!$B$5), "done", _xlfn.DAYS(  G14, TODAY() ) )</f>
+        <v>21</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="20">
+        <v>41957</v>
+      </c>
+      <c r="H15" s="24">
+        <f ca="1">IF(EXACT( E15, Pickers!$B$5), "done", _xlfn.DAYS(  G15, TODAY() ) )</f>
+        <v>21</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20">
+        <v>41973</v>
+      </c>
+      <c r="H16" s="24">
+        <f ca="1">IF(EXACT( E16, Pickers!$B$5), "done", _xlfn.DAYS(  G16, TODAY() ) )</f>
+        <v>37</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="20">
+        <v>41978</v>
+      </c>
+      <c r="H17" s="24">
+        <f ca="1">IF(EXACT( E17, Pickers!$B$5), "done", _xlfn.DAYS(  G17, TODAY() ) )</f>
+        <v>42</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" ref="J17" si="3">(I17-7) - (MOD(I17,7))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="20">
+        <v>41927</v>
+      </c>
+      <c r="H18" s="24" t="str">
+        <f ca="1">IF(EXACT( E18, Pickers!$B$5), "done", _xlfn.DAYS(  G18, TODAY() ) )</f>
+        <v>done</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="20">
         <v>41936</v>
       </c>
-      <c r="E7" s="22">
+      <c r="H19" s="24">
+        <f ca="1">IF(EXACT( E19, Pickers!$B$5), "done", _xlfn.DAYS(  G19, TODAY() ) )</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F7" s="22">
+      <c r="J19" s="21">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
         <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="20">
+        <v>41943</v>
+      </c>
+      <c r="H20" s="24">
+        <f ca="1">IF(EXACT( E20, Pickers!$B$5), "done", _xlfn.DAYS(  G20, TODAY() ) )</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="20">
-        <v>41943</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="I20" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F8" s="22">
+      <c r="J20" s="21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
         <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="20">
+        <v>41936</v>
+      </c>
+      <c r="H21" s="24">
+        <f ca="1">IF(EXACT( E21, Pickers!$B$5), "done", _xlfn.DAYS(  G21, TODAY() ) )</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="J21" s="21">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="20">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="20">
         <v>41943</v>
       </c>
-      <c r="E9" s="22">
+      <c r="H22" s="24">
+        <f ca="1">IF(EXACT( E22, Pickers!$B$5), "done", _xlfn.DAYS(  G22, TODAY() ) )</f>
+        <v>7</v>
+      </c>
+      <c r="I22" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F9" s="22">
+      <c r="J22" s="21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
         <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="20">
+        <v>41950</v>
+      </c>
+      <c r="H23" s="24">
+        <f ca="1">IF(EXACT( E23, Pickers!$B$5), "done", _xlfn.DAYS(  G23, TODAY() ) )</f>
         <v>14</v>
       </c>
+      <c r="I23" s="21">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J23" s="21">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="20">
+        <v>41950</v>
+      </c>
+      <c r="H24" s="24">
+        <f ca="1">IF(EXACT( E24, Pickers!$B$5), "done", _xlfn.DAYS(  G24, TODAY() ) )</f>
+        <v>14</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="20">
+        <v>41957</v>
+      </c>
+      <c r="H25" s="24">
+        <f ca="1">IF(EXACT( E25, Pickers!$B$5), "done", _xlfn.DAYS(  G25, TODAY() ) )</f>
+        <v>21</v>
+      </c>
+      <c r="I25" s="21">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J25" s="21">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="20">
+        <v>41964</v>
+      </c>
+      <c r="H26" s="24">
+        <f ca="1">IF(EXACT( E26, Pickers!$B$5), "done", _xlfn.DAYS(  G26, TODAY() ) )</f>
+        <v>28</v>
+      </c>
+      <c r="I26" s="21">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J26" s="21">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="20">
+        <v>41964</v>
+      </c>
+      <c r="H27" s="24">
+        <f ca="1">IF(EXACT( E27, Pickers!$B$5), "done", _xlfn.DAYS(  G27, TODAY() ) )</f>
+        <v>28</v>
+      </c>
+      <c r="I27" s="21">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J27" s="21">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="B28" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="20">
+        <v>41964</v>
+      </c>
+      <c r="H28" s="24">
+        <f ca="1">IF(EXACT( E28, Pickers!$B$5), "done", _xlfn.DAYS(  G28, TODAY() ) )</f>
+        <v>28</v>
+      </c>
+      <c r="I28" s="21">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J28" s="21">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="20">
+        <v>41970</v>
+      </c>
+      <c r="H29" s="24">
+        <f ca="1">IF(EXACT( E29, Pickers!$B$5), "done", _xlfn.DAYS(  G29, TODAY() ) )</f>
+        <v>34</v>
+      </c>
+      <c r="I29" s="21">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J29" s="21">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="20">
         <v>41943</v>
       </c>
-      <c r="E10" s="22">
+      <c r="H30" s="24">
+        <f ca="1">IF(EXACT( E30, Pickers!$B$5), "done", _xlfn.DAYS(  G30, TODAY() ) )</f>
+        <v>7</v>
+      </c>
+      <c r="I30" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F10" s="22">
+      <c r="J30" s="21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="20">
+        <v>41962</v>
+      </c>
+      <c r="H31" s="24">
+        <f ca="1">IF(EXACT( E31, Pickers!$B$5), "done", _xlfn.DAYS(  G31, TODAY() ) )</f>
+        <v>26</v>
+      </c>
+      <c r="I31" s="21">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J31" s="21">
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="20">
-        <v>41950</v>
-      </c>
-      <c r="E11" s="22">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="F11" s="22">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="20">
-        <v>41950</v>
-      </c>
-      <c r="E12" s="22">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="F12" s="22">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="20">
-        <v>41950</v>
-      </c>
-      <c r="E13" s="22">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="F13" s="22">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="20">
-        <v>41957</v>
-      </c>
-      <c r="E14" s="22">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F14" s="22">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="20">
-        <v>41957</v>
-      </c>
-      <c r="E15" s="22">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F15" s="22">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="20">
-        <v>41973</v>
-      </c>
-      <c r="E16" s="22">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="F16" s="22">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="20">
+      <c r="B32" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="20">
         <v>41927</v>
       </c>
-      <c r="E17" s="22">
+      <c r="H32" s="24" t="str">
+        <f ca="1">IF(EXACT( E32, Pickers!$B$5), "done", _xlfn.DAYS(  G32, TODAY() ) )</f>
+        <v>done</v>
+      </c>
+      <c r="I32" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F17" s="22">
+      <c r="J32" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="20">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="20">
         <v>41936</v>
       </c>
-      <c r="E18" s="22">
+      <c r="H33" s="24" t="str">
+        <f ca="1">IF(EXACT( E33, Pickers!$B$5), "done", _xlfn.DAYS(  G33, TODAY() ) )</f>
+        <v>done</v>
+      </c>
+      <c r="I33" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F18" s="22">
+      <c r="J33" s="21">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
         <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="20">
+        <v>41993</v>
+      </c>
+      <c r="H34" s="24">
+        <f ca="1">IF(EXACT( E34, Pickers!$B$5), "done", _xlfn.DAYS(  G34, TODAY() ) )</f>
+        <v>57</v>
+      </c>
+      <c r="I34" s="21">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="J34" s="21">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="20">
+        <v>41993</v>
+      </c>
+      <c r="H35" s="24">
+        <f ca="1">IF(EXACT( E35, Pickers!$B$5), "done", _xlfn.DAYS(  G35, TODAY() ) )</f>
+        <v>57</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="J35" s="21">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="20">
+        <v>41943</v>
+      </c>
+      <c r="H36" s="24">
+        <f ca="1">IF(EXACT( E36, Pickers!$B$5), "done", _xlfn.DAYS(  G36, TODAY() ) )</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="20">
-        <v>41943</v>
-      </c>
-      <c r="E19" s="22">
+      <c r="I36" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F19" s="22">
+      <c r="J36" s="21">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="20">
-        <v>41936</v>
-      </c>
-      <c r="E20" s="22">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F20" s="22">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="20">
-        <v>41943</v>
-      </c>
-      <c r="E21" s="22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F21" s="22">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="20">
-        <v>41950</v>
-      </c>
-      <c r="E22" s="22">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="F22" s="22">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="20">
-        <v>41950</v>
-      </c>
-      <c r="E23" s="22">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="F23" s="22">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="20">
-        <v>41957</v>
-      </c>
-      <c r="E24" s="22">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F24" s="22">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="20">
-        <v>41964</v>
-      </c>
-      <c r="E25" s="22">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="F25" s="22">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="20">
-        <v>41964</v>
-      </c>
-      <c r="E26" s="22">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="F26" s="22">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="20">
-        <v>41964</v>
-      </c>
-      <c r="E27" s="22">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="F27" s="22">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="20">
-        <v>41970</v>
-      </c>
-      <c r="E28" s="22">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="F28" s="22">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="19" t="s">
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="20">
-        <v>41943</v>
-      </c>
-      <c r="E29" s="22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F29" s="22">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="20">
+      <c r="E37" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="20">
         <v>41962</v>
       </c>
-      <c r="E30" s="22">
+      <c r="H37" s="24">
+        <f ca="1">IF(EXACT( E37, Pickers!$B$5), "done", _xlfn.DAYS(  G37, TODAY() ) )</f>
+        <v>26</v>
+      </c>
+      <c r="I37" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F30" s="22">
+      <c r="J37" s="21">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="20">
+        <v>41969</v>
+      </c>
+      <c r="H38" s="24">
+        <f ca="1">IF(EXACT( E38, Pickers!$B$5), "done", _xlfn.DAYS(  G38, TODAY() ) )</f>
+        <v>33</v>
+      </c>
+      <c r="I38" s="21">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="J38" s="21">
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="20">
-        <v>41927</v>
-      </c>
-      <c r="E31" s="22">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="20">
+        <v>41981</v>
+      </c>
+      <c r="H39" s="24">
+        <f ca="1">IF(EXACT( E39, Pickers!$B$5), "done", _xlfn.DAYS(  G39, TODAY() ) )</f>
+        <v>45</v>
+      </c>
+      <c r="I39" s="21">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F31" s="22">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="J39" s="21">
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="20">
-        <v>41993</v>
-      </c>
-      <c r="E32" s="22">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="F32" s="22">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
         <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="20">
-        <v>41993</v>
-      </c>
-      <c r="E33" s="22">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="F33" s="22">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="20">
-        <v>41943</v>
-      </c>
-      <c r="E34" s="22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F34" s="22">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="20">
+      <c r="E40" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="20">
         <v>41962</v>
       </c>
-      <c r="E35" s="22">
+      <c r="H40" s="24">
+        <f ca="1">IF(EXACT( E40, Pickers!$B$5), "done", _xlfn.DAYS(  G40, TODAY() ) )</f>
+        <v>26</v>
+      </c>
+      <c r="I40" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F35" s="22">
+      <c r="J40" s="21">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="20">
+      <c r="D41" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="20">
         <v>41969</v>
       </c>
-      <c r="E36" s="22">
+      <c r="H41" s="24">
+        <f ca="1">IF(EXACT( E41, Pickers!$B$5), "done", _xlfn.DAYS(  G41, TODAY() ) )</f>
+        <v>33</v>
+      </c>
+      <c r="I41" s="21">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F36" s="22">
+      <c r="J41" s="21">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="D42" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="20">
-        <v>41981</v>
-      </c>
-      <c r="E37" s="22">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="F37" s="22">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="20">
-        <v>41962</v>
-      </c>
-      <c r="E38" s="22">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F38" s="22">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="20">
-        <v>41969</v>
-      </c>
-      <c r="E39" s="22">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="F39" s="22">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="22" t="e">
+      <c r="H42" s="24" t="e">
+        <f ca="1">IF(EXACT( E42, Pickers!$B$5), "done", _xlfn.DAYS(  G42, TODAY() ) )</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I42" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F40" s="22" t="e">
-        <f t="shared" si="1"/>
+      <c r="J42" s="21" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H42">
+    <cfRule type="cellIs" dxfId="296" priority="4" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="5" operator="between">
+      <formula>1</formula>
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="6" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="290" priority="1" operator="equal">
+      <formula>"Marketing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="2" operator="equal">
+      <formula>"Game"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="3" operator="equal">
+      <formula>"API"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{927A3B34-ACFB-419B-8EE3-DE98F8CE9673}">
+            <xm:f>Pickers!$B$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{E57D3185-6414-4539-B18A-78641DA89472}">
+            <xm:f>Pickers!$B$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{0C9513E0-B032-4DC9-AAB5-B019F12BD09C}">
+            <xm:f>Pickers!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="8" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E2:E42</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Pickers!$B$3:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E42</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
